--- a/data/trans_orig/P05A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22A7181-E468-42E3-8FC3-8328D5ADE75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ECC9C8A-92AE-4563-9EC5-0E52216901AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A80EDFB-4EEA-4251-B8E4-1DE96EC06CC1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7188F4BA-2D54-4F88-8FAD-BAE9FF174983}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="561">
   <si>
     <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2012 (Tasa respuesta: 99,68%)</t>
   </si>
@@ -76,1623 +76,1617 @@
     <t>54,39%</t>
   </si>
   <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
   </si>
   <si>
     <t>57,16%</t>
   </si>
   <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
     <t>51,94%</t>
   </si>
   <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
   </si>
   <si>
     <t>8,1%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2015 (Tasa respuesta: 99,51%)</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
     <t>15,62%</t>
   </si>
   <si>
@@ -1702,13 +1696,7 @@
     <t>16,03%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
     <t>17,25%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
   </si>
   <si>
     <t>15,5%</t>
@@ -2144,7 +2132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CD6579-782C-4EB3-8F73-A8CFE6BEE06A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4445D58E-B9FD-4816-B73F-04153FAB6343}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3158,13 +3146,13 @@
         <v>164385</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>291</v>
@@ -3173,13 +3161,13 @@
         <v>317343</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3182,13 @@
         <v>56470</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -3209,13 +3197,13 @@
         <v>60286</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>108</v>
@@ -3224,13 +3212,13 @@
         <v>116756</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,7 +3274,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3298,13 +3286,13 @@
         <v>272931</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>337</v>
@@ -3313,13 +3301,13 @@
         <v>361038</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>584</v>
@@ -3328,13 +3316,13 @@
         <v>633969</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,13 +3337,13 @@
         <v>209049</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>252</v>
@@ -3364,13 +3352,13 @@
         <v>270164</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>441</v>
@@ -3379,13 +3367,13 @@
         <v>479213</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3388,13 @@
         <v>76490</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>103</v>
@@ -3415,13 +3403,13 @@
         <v>109551</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M26" s="7">
         <v>170</v>
@@ -3430,13 +3418,13 @@
         <v>186041</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3492,13 @@
         <v>1796962</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>1703</v>
@@ -3519,13 +3507,13 @@
         <v>1840410</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="M28" s="7">
         <v>3376</v>
@@ -3534,13 +3522,13 @@
         <v>3637371</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3543,13 @@
         <v>1189930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>1130</v>
@@ -3570,13 +3558,13 @@
         <v>1217933</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M29" s="7">
         <v>2247</v>
@@ -3585,13 +3573,13 @@
         <v>2407863</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3594,13 @@
         <v>431493</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>452</v>
@@ -3621,13 +3609,13 @@
         <v>484758</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>863</v>
@@ -3636,13 +3624,13 @@
         <v>916252</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,7 +3686,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3720,7 +3708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE861D7-F6C2-4814-81BE-1589306AD800}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57653E46-77E9-4657-8459-E90154CB5CCA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3737,7 +3725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3844,13 +3832,13 @@
         <v>283461</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H4" s="7">
         <v>275</v>
@@ -3859,13 +3847,13 @@
         <v>267065</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7">
         <v>544</v>
@@ -3874,13 +3862,13 @@
         <v>550526</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3883,13 @@
         <v>99562</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
         <v>88</v>
@@ -3910,13 +3898,13 @@
         <v>86708</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>179</v>
@@ -3925,13 +3913,13 @@
         <v>186270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3934,13 @@
         <v>34163</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H6" s="7">
         <v>40</v>
@@ -3961,13 +3949,13 @@
         <v>40986</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -3976,13 +3964,13 @@
         <v>75150</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4038,13 @@
         <v>364460</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>367</v>
@@ -4065,28 +4053,28 @@
         <v>356166</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>718</v>
       </c>
       <c r="N8" s="7">
-        <v>720626</v>
+        <v>720627</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4089,13 @@
         <v>161153</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H9" s="7">
         <v>142</v>
@@ -4116,28 +4104,28 @@
         <v>138736</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M9" s="7">
         <v>295</v>
       </c>
       <c r="N9" s="7">
-        <v>299888</v>
+        <v>299889</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4140,13 @@
         <v>64883</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -4167,13 +4155,13 @@
         <v>67714</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -4182,13 +4170,13 @@
         <v>132597</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,7 +4218,7 @@
         <v>1145</v>
       </c>
       <c r="N11" s="7">
-        <v>1153112</v>
+        <v>1153113</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4256,13 +4244,13 @@
         <v>439564</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H12" s="7">
         <v>455</v>
@@ -4271,13 +4259,13 @@
         <v>450614</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M12" s="7">
         <v>879</v>
@@ -4286,13 +4274,13 @@
         <v>890178</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4295,13 @@
         <v>162144</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -4322,13 +4310,13 @@
         <v>141791</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -4337,13 +4325,13 @@
         <v>303935</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4346,13 @@
         <v>64380</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -4373,13 +4361,13 @@
         <v>65095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>126</v>
@@ -4388,13 +4376,13 @@
         <v>129475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4450,13 @@
         <v>422356</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>403</v>
@@ -4477,13 +4465,13 @@
         <v>434903</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>779</v>
@@ -4492,13 +4480,13 @@
         <v>857259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4501,13 @@
         <v>158384</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>130</v>
@@ -4528,13 +4516,13 @@
         <v>138147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>278</v>
@@ -4543,13 +4531,13 @@
         <v>296531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4552,13 @@
         <v>61948</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -4579,13 +4567,13 @@
         <v>73198</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M18" s="7">
         <v>122</v>
@@ -4594,13 +4582,13 @@
         <v>135146</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4656,13 @@
         <v>310552</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>269</v>
@@ -4683,13 +4671,13 @@
         <v>307946</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>546</v>
@@ -4698,13 +4686,13 @@
         <v>618497</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4707,13 @@
         <v>108985</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="H21" s="7">
         <v>102</v>
@@ -4734,13 +4722,13 @@
         <v>113721</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M21" s="7">
         <v>198</v>
@@ -4749,13 +4737,13 @@
         <v>222706</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4758,13 @@
         <v>54213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -4785,13 +4773,13 @@
         <v>71972</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -4800,13 +4788,13 @@
         <v>126185</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,7 +4850,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4874,13 +4862,13 @@
         <v>388787</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H24" s="7">
         <v>413</v>
@@ -4889,13 +4877,13 @@
         <v>491415</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="M24" s="7">
         <v>828</v>
@@ -4904,13 +4892,13 @@
         <v>880202</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4913,13 @@
         <v>143973</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H25" s="7">
         <v>158</v>
@@ -4940,13 +4928,13 @@
         <v>187553</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M25" s="7">
         <v>307</v>
@@ -4955,13 +4943,13 @@
         <v>331526</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4964,13 @@
         <v>55737</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H26" s="7">
         <v>78</v>
@@ -4991,13 +4979,13 @@
         <v>92515</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M26" s="7">
         <v>138</v>
@@ -5006,13 +4994,13 @@
         <v>148252</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>365</v>
+        <v>229</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5068,13 @@
         <v>2209179</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H28" s="7">
         <v>2182</v>
@@ -5095,13 +5083,13 @@
         <v>2308110</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M28" s="7">
         <v>4294</v>
@@ -5110,13 +5098,13 @@
         <v>4517288</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>374</v>
+        <v>212</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5119,13 @@
         <v>834200</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H29" s="7">
         <v>762</v>
@@ -5146,13 +5134,13 @@
         <v>806656</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M29" s="7">
         <v>1548</v>
@@ -5161,13 +5149,13 @@
         <v>1640856</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5170,13 @@
         <v>335325</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H30" s="7">
         <v>377</v>
@@ -5197,13 +5185,13 @@
         <v>411480</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>288</v>
+        <v>384</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M30" s="7">
         <v>695</v>
@@ -5212,13 +5200,13 @@
         <v>746805</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,7 +5233,7 @@
         <v>3321</v>
       </c>
       <c r="I31" s="7">
-        <v>3526246</v>
+        <v>3526245</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -5274,7 +5262,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5296,7 +5284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A4D470-1CF1-41BD-A036-98361A156687}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8CE3CA-AD4A-4B2A-866C-CBCC8D165FFF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5313,7 +5301,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5420,13 +5408,13 @@
         <v>290160</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H4" s="7">
         <v>138</v>
@@ -5435,13 +5423,13 @@
         <v>228958</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M4" s="7">
         <v>268</v>
@@ -5450,13 +5438,13 @@
         <v>519118</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5459,13 @@
         <v>61230</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>402</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -5486,13 +5474,13 @@
         <v>77563</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M5" s="7">
         <v>73</v>
@@ -5501,13 +5489,13 @@
         <v>138793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5510,13 @@
         <v>26289</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -5537,13 +5525,13 @@
         <v>48275</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M6" s="7">
         <v>37</v>
@@ -5552,13 +5540,13 @@
         <v>74564</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5614,13 @@
         <v>315703</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H8" s="7">
         <v>355</v>
@@ -5641,13 +5629,13 @@
         <v>384084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M8" s="7">
         <v>577</v>
@@ -5656,13 +5644,13 @@
         <v>699787</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5665,13 @@
         <v>75622</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H9" s="7">
         <v>67</v>
@@ -5692,13 +5680,13 @@
         <v>70765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>432</v>
+        <v>96</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M9" s="7">
         <v>120</v>
@@ -5707,13 +5695,13 @@
         <v>146388</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5716,13 @@
         <v>37071</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -5743,13 +5731,13 @@
         <v>44365</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -5758,13 +5746,13 @@
         <v>81436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5820,13 @@
         <v>411915</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H12" s="7">
         <v>625</v>
@@ -5847,13 +5835,13 @@
         <v>456308</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M12" s="7">
         <v>1034</v>
@@ -5862,13 +5850,13 @@
         <v>868223</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5871,13 @@
         <v>89235</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -5898,13 +5886,13 @@
         <v>97029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M13" s="7">
         <v>221</v>
@@ -5913,13 +5901,13 @@
         <v>186265</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5922,13 @@
         <v>54733</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -5949,13 +5937,13 @@
         <v>56332</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>117</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
         <v>135</v>
@@ -5964,13 +5952,13 @@
         <v>111065</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6026,13 @@
         <v>523610</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H16" s="7">
         <v>838</v>
@@ -6053,13 +6041,13 @@
         <v>543369</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="M16" s="7">
         <v>1306</v>
@@ -6068,13 +6056,13 @@
         <v>1066978</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6077,13 @@
         <v>121027</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H17" s="7">
         <v>182</v>
@@ -6104,13 +6092,13 @@
         <v>122323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M17" s="7">
         <v>301</v>
@@ -6119,13 +6107,13 @@
         <v>243350</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6128,13 @@
         <v>79354</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H18" s="7">
         <v>120</v>
@@ -6155,13 +6143,13 @@
         <v>81410</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="M18" s="7">
         <v>198</v>
@@ -6170,13 +6158,13 @@
         <v>160764</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6232,13 @@
         <v>452823</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H20" s="7">
         <v>749</v>
@@ -6259,13 +6247,13 @@
         <v>440477</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M20" s="7">
         <v>1248</v>
@@ -6274,13 +6262,13 @@
         <v>893300</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6283,13 @@
         <v>94725</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
@@ -6310,13 +6298,13 @@
         <v>88859</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>510</v>
+        <v>198</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="M21" s="7">
         <v>246</v>
@@ -6325,13 +6313,13 @@
         <v>183584</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6334,13 @@
         <v>52609</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>314</v>
+        <v>509</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="H22" s="7">
         <v>110</v>
@@ -6361,13 +6349,13 @@
         <v>67065</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>365</v>
+        <v>513</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M22" s="7">
         <v>170</v>
@@ -6376,13 +6364,13 @@
         <v>119674</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>519</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,7 +6426,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6450,13 +6438,13 @@
         <v>499273</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H24" s="7">
         <v>1278</v>
@@ -6465,13 +6453,13 @@
         <v>787766</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="M24" s="7">
         <v>2009</v>
@@ -6480,13 +6468,13 @@
         <v>1287039</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,13 +6489,13 @@
         <v>141463</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H25" s="7">
         <v>285</v>
@@ -6516,13 +6504,13 @@
         <v>157882</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>95</v>
+        <v>529</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M25" s="7">
         <v>494</v>
@@ -6531,13 +6519,13 @@
         <v>299345</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>536</v>
+        <v>36</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,13 +6540,13 @@
         <v>56448</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>89</v>
+        <v>533</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H26" s="7">
         <v>144</v>
@@ -6567,13 +6555,13 @@
         <v>80356</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>231</v>
@@ -6582,13 +6570,13 @@
         <v>136804</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6644,13 @@
         <v>2493482</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H28" s="7">
         <v>3983</v>
@@ -6671,13 +6659,13 @@
         <v>2840962</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>211</v>
+        <v>544</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M28" s="7">
         <v>6442</v>
@@ -6686,13 +6674,13 @@
         <v>5334444</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +6695,13 @@
         <v>583303</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>118</v>
+        <v>548</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H29" s="7">
         <v>858</v>
@@ -6722,13 +6710,13 @@
         <v>614422</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>554</v>
+        <v>308</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="M29" s="7">
         <v>1455</v>
@@ -6737,13 +6725,13 @@
         <v>1197725</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>556</v>
+        <v>178</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6758,13 +6746,13 @@
         <v>306503</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H30" s="7">
         <v>521</v>
@@ -6773,13 +6761,13 @@
         <v>377803</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M30" s="7">
         <v>837</v>
@@ -6788,13 +6776,13 @@
         <v>684306</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,7 +6838,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ECC9C8A-92AE-4563-9EC5-0E52216901AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12749C6F-7F05-4C5A-AE27-A8E653C6ABD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7188F4BA-2D54-4F88-8FAD-BAE9FF174983}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7CE0331-4A02-45BE-8D8C-ED6B63E12A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -76,28 +76,28 @@
     <t>54,39%</t>
   </si>
   <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
   </si>
   <si>
     <t>57,16%</t>
   </si>
   <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
   </si>
   <si>
     <t>55,74%</t>
   </si>
   <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -106,1621 +106,1621 @@
     <t>34,51%</t>
   </si>
   <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
   </si>
   <si>
     <t>33,38%</t>
   </si>
   <si>
-    <t>30,25%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>36,48%</t>
   </si>
   <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>11,11%</t>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>17,33%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>15,52%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>8,74%</t>
+    <t>8,71%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>10,19%</t>
+    <t>10,27%</t>
   </si>
 </sst>
 </file>
@@ -2132,7 +2132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4445D58E-B9FD-4816-B73F-04153FAB6343}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55B0B43-9101-468A-A64C-73C03C7BD6DA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2564,13 +2564,13 @@
         <v>89889</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -2579,13 +2579,13 @@
         <v>87582</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -2594,13 +2594,13 @@
         <v>177472</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,7 +2656,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2668,13 +2668,13 @@
         <v>368812</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>348</v>
@@ -2683,13 +2683,13 @@
         <v>373512</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>696</v>
@@ -2698,13 +2698,13 @@
         <v>742324</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,13 +2719,13 @@
         <v>240670</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>219</v>
@@ -2734,13 +2734,13 @@
         <v>232275</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>447</v>
@@ -2749,13 +2749,13 @@
         <v>472945</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2770,13 @@
         <v>70691</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>96</v>
@@ -2785,13 +2785,13 @@
         <v>100328</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>169</v>
@@ -2800,13 +2800,13 @@
         <v>171018</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,7 +2862,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2874,13 +2874,13 @@
         <v>312608</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>274</v>
@@ -2889,13 +2889,13 @@
         <v>315815</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>550</v>
@@ -2904,13 +2904,13 @@
         <v>628423</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2925,13 @@
         <v>213360</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>191</v>
@@ -2940,13 +2940,13 @@
         <v>215013</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>381</v>
@@ -2955,13 +2955,13 @@
         <v>428373</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2976,13 @@
         <v>87625</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -2991,13 +2991,13 @@
         <v>81260</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>152</v>
@@ -3006,13 +3006,13 @@
         <v>168885</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,7 +3068,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3080,13 +3080,13 @@
         <v>219015</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>198</v>
@@ -3095,13 +3095,13 @@
         <v>220001</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>396</v>
@@ -3110,13 +3110,13 @@
         <v>439016</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3131,13 @@
         <v>152958</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>150</v>
@@ -3146,7 +3146,7 @@
         <v>164385</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>138</v>
@@ -3355,10 +3355,10 @@
         <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>441</v>
@@ -3367,13 +3367,13 @@
         <v>479213</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3388,13 @@
         <v>76490</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>103</v>
@@ -3403,13 +3403,13 @@
         <v>109551</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>170</v>
@@ -3418,13 +3418,13 @@
         <v>186041</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3492,13 @@
         <v>1796962</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H28" s="7">
         <v>1703</v>
@@ -3507,13 +3507,13 @@
         <v>1840410</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="M28" s="7">
         <v>3376</v>
@@ -3522,13 +3522,13 @@
         <v>3637371</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3543,13 @@
         <v>1189930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>1130</v>
@@ -3558,13 +3558,13 @@
         <v>1217933</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>2247</v>
@@ -3573,13 +3573,13 @@
         <v>2407863</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3594,13 @@
         <v>431493</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>452</v>
@@ -3609,13 +3609,13 @@
         <v>484758</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>863</v>
@@ -3624,13 +3624,13 @@
         <v>916252</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,7 +3686,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3708,7 +3708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57653E46-77E9-4657-8459-E90154CB5CCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C2C6CC-B673-4E02-A8C4-D80493C229EC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3725,7 +3725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3832,13 +3832,13 @@
         <v>283461</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H4" s="7">
         <v>275</v>
@@ -3847,13 +3847,13 @@
         <v>267065</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>544</v>
@@ -3862,13 +3862,13 @@
         <v>550526</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3883,13 @@
         <v>99562</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>88</v>
@@ -3898,13 +3898,13 @@
         <v>86708</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>179</v>
@@ -3913,13 +3913,13 @@
         <v>186270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3934,13 @@
         <v>34163</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H6" s="7">
         <v>40</v>
@@ -3949,13 +3949,13 @@
         <v>40986</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -3964,13 +3964,13 @@
         <v>75150</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4038,13 @@
         <v>364460</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>367</v>
@@ -4053,28 +4053,28 @@
         <v>356166</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>718</v>
       </c>
       <c r="N8" s="7">
-        <v>720627</v>
+        <v>720626</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4089,13 @@
         <v>161153</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H9" s="7">
         <v>142</v>
@@ -4104,28 +4104,28 @@
         <v>138736</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M9" s="7">
         <v>295</v>
       </c>
       <c r="N9" s="7">
-        <v>299889</v>
+        <v>299888</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4140,13 @@
         <v>64883</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -4155,13 +4155,13 @@
         <v>67714</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -4170,13 +4170,13 @@
         <v>132597</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,7 +4218,7 @@
         <v>1145</v>
       </c>
       <c r="N11" s="7">
-        <v>1153113</v>
+        <v>1153112</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4244,13 +4244,13 @@
         <v>439564</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H12" s="7">
         <v>455</v>
@@ -4259,13 +4259,13 @@
         <v>450614</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M12" s="7">
         <v>879</v>
@@ -4274,13 +4274,13 @@
         <v>890178</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4295,13 @@
         <v>162144</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -4310,13 +4310,13 @@
         <v>141791</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -4325,13 +4325,13 @@
         <v>303935</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4346,13 @@
         <v>64380</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -4361,13 +4361,13 @@
         <v>65095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>126</v>
@@ -4376,13 +4376,13 @@
         <v>129475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,7 +4438,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4450,13 +4450,13 @@
         <v>422356</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H16" s="7">
         <v>403</v>
@@ -4465,13 +4465,13 @@
         <v>434903</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>779</v>
@@ -4480,13 +4480,13 @@
         <v>857259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4501,13 @@
         <v>158384</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>130</v>
@@ -4516,13 +4516,13 @@
         <v>138147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>278</v>
@@ -4531,13 +4531,13 @@
         <v>296531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4552,13 @@
         <v>61948</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -4567,13 +4567,13 @@
         <v>73198</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M18" s="7">
         <v>122</v>
@@ -4582,13 +4582,13 @@
         <v>135146</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,7 +4644,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4656,13 +4656,13 @@
         <v>310552</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>269</v>
@@ -4671,13 +4671,13 @@
         <v>307946</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>546</v>
@@ -4686,13 +4686,13 @@
         <v>618497</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4707,13 @@
         <v>108985</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="H21" s="7">
         <v>102</v>
@@ -4722,13 +4722,13 @@
         <v>113721</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M21" s="7">
         <v>198</v>
@@ -4737,13 +4737,13 @@
         <v>222706</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4758,13 @@
         <v>54213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -4773,13 +4773,13 @@
         <v>71972</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -4788,13 +4788,13 @@
         <v>126185</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4862,13 @@
         <v>388787</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H24" s="7">
         <v>413</v>
@@ -4877,13 +4877,13 @@
         <v>491415</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M24" s="7">
         <v>828</v>
@@ -4892,13 +4892,13 @@
         <v>880202</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4913,13 @@
         <v>143973</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>52</v>
       </c>
       <c r="H25" s="7">
         <v>158</v>
@@ -4928,13 +4928,13 @@
         <v>187553</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>307</v>
@@ -4943,13 +4943,13 @@
         <v>331526</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4964,13 @@
         <v>55737</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
         <v>78</v>
@@ -4979,13 +4979,13 @@
         <v>92515</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M26" s="7">
         <v>138</v>
@@ -4994,13 +4994,13 @@
         <v>148252</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>229</v>
+        <v>364</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>363</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,7 +5068,7 @@
         <v>2209179</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>364</v>
+        <v>238</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>365</v>
@@ -5101,10 +5101,10 @@
         <v>370</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>212</v>
+        <v>371</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5119,13 @@
         <v>834200</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H29" s="7">
         <v>762</v>
@@ -5134,10 +5134,10 @@
         <v>806656</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>376</v>
+        <v>249</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>377</v>
@@ -5185,13 +5185,13 @@
         <v>411480</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>385</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>386</v>
+        <v>89</v>
       </c>
       <c r="M30" s="7">
         <v>695</v>
@@ -5200,13 +5200,13 @@
         <v>746805</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,7 +5233,7 @@
         <v>3321</v>
       </c>
       <c r="I31" s="7">
-        <v>3526245</v>
+        <v>3526246</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5284,7 +5284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8CE3CA-AD4A-4B2A-866C-CBCC8D165FFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A5EA21-48BB-49D3-83E3-0FEF4CEB03FA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5301,7 +5301,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5408,13 +5408,13 @@
         <v>290160</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H4" s="7">
         <v>138</v>
@@ -5423,13 +5423,13 @@
         <v>228958</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M4" s="7">
         <v>268</v>
@@ -5438,13 +5438,13 @@
         <v>519118</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,7 +5459,7 @@
         <v>61230</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>398</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>399</v>
@@ -5680,10 +5680,10 @@
         <v>70765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>96</v>
+        <v>428</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>429</v>
@@ -5716,13 +5716,13 @@
         <v>37071</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -5731,13 +5731,13 @@
         <v>44365</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -5746,13 +5746,13 @@
         <v>81436</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,7 +5808,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5820,13 +5820,13 @@
         <v>411915</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H12" s="7">
         <v>625</v>
@@ -5835,13 +5835,13 @@
         <v>456308</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M12" s="7">
         <v>1034</v>
@@ -5850,13 +5850,13 @@
         <v>868223</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5871,13 @@
         <v>89235</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -5886,13 +5886,13 @@
         <v>97029</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M13" s="7">
         <v>221</v>
@@ -5901,13 +5901,13 @@
         <v>186265</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5922,13 @@
         <v>54733</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -5937,13 +5937,13 @@
         <v>56332</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M14" s="7">
         <v>135</v>
@@ -5952,7 +5952,7 @@
         <v>111065</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>360</v>
+        <v>464</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>465</v>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6110,10 +6110,10 @@
         <v>482</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6128,13 @@
         <v>79354</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="H18" s="7">
         <v>120</v>
@@ -6143,13 +6143,13 @@
         <v>81410</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="M18" s="7">
         <v>198</v>
@@ -6158,13 +6158,13 @@
         <v>160764</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,7 +6220,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6232,13 +6232,13 @@
         <v>452823</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>495</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>749</v>
@@ -6247,13 +6247,13 @@
         <v>440477</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="M20" s="7">
         <v>1248</v>
@@ -6262,13 +6262,13 @@
         <v>893300</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,10 +6286,10 @@
         <v>430</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
@@ -6298,13 +6298,13 @@
         <v>88859</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M21" s="7">
         <v>246</v>
@@ -6313,13 +6313,13 @@
         <v>183584</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>507</v>
+        <v>410</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,13 +6334,13 @@
         <v>52609</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H22" s="7">
         <v>110</v>
@@ -6349,13 +6349,13 @@
         <v>67065</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M22" s="7">
         <v>170</v>
@@ -6367,10 +6367,10 @@
         <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>515</v>
+        <v>332</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>384</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6438,13 @@
         <v>499273</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H24" s="7">
         <v>1278</v>
@@ -6453,13 +6453,13 @@
         <v>787766</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M24" s="7">
         <v>2009</v>
@@ -6468,13 +6468,13 @@
         <v>1287039</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6489,13 @@
         <v>141463</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>527</v>
+        <v>276</v>
       </c>
       <c r="H25" s="7">
         <v>285</v>
@@ -6504,13 +6504,13 @@
         <v>157882</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>529</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="M25" s="7">
         <v>494</v>
@@ -6519,13 +6519,13 @@
         <v>299345</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,13 +6540,13 @@
         <v>56448</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>533</v>
+        <v>485</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H26" s="7">
         <v>144</v>
@@ -6555,13 +6555,13 @@
         <v>80356</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>532</v>
       </c>
       <c r="M26" s="7">
         <v>231</v>
@@ -6570,13 +6570,13 @@
         <v>136804</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,7 +6618,7 @@
         <v>2734</v>
       </c>
       <c r="N27" s="7">
-        <v>1723188</v>
+        <v>1723187</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -6644,13 +6644,13 @@
         <v>2493482</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H28" s="7">
         <v>3983</v>
@@ -6659,13 +6659,13 @@
         <v>2840962</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M28" s="7">
         <v>6442</v>
@@ -6674,13 +6674,13 @@
         <v>5334444</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>422</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,13 +6695,13 @@
         <v>583303</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H29" s="7">
         <v>858</v>
@@ -6710,13 +6710,13 @@
         <v>614422</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>308</v>
+        <v>549</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M29" s="7">
         <v>1455</v>
@@ -6725,13 +6725,13 @@
         <v>1197725</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>551</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,7 +6767,7 @@
         <v>558</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M30" s="7">
         <v>837</v>
@@ -6779,7 +6779,7 @@
         <v>559</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>558</v>
+        <v>438</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>560</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12749C6F-7F05-4C5A-AE27-A8E653C6ABD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB2C6063-0B48-4400-8F4D-7FFE9BE1E85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C7CE0331-4A02-45BE-8D8C-ED6B63E12A8A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1A8BDE89-C976-48CB-9C99-2DE3ABE4746C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="632">
   <si>
     <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2012 (Tasa respuesta: 99,68%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nada</t>
@@ -163,7 +163,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>55,09%</t>
@@ -244,7 +244,7 @@
     <t>15,79%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>54,22%</t>
@@ -328,7 +328,7 @@
     <t>14,24%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>50,95%</t>
@@ -412,7 +412,7 @@
     <t>16,06%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>51,12%</t>
@@ -496,1231 +496,1444 @@
     <t>15,89%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>13,7%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
   </si>
   <si>
     <t>16,43%</t>
   </si>
   <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,51%)</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
   </si>
   <si>
     <t>15,34%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
   </si>
 </sst>
 </file>
@@ -2132,8 +2345,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55B0B43-9101-468A-A64C-73C03C7BD6DA}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373FE84D-67EE-4049-94DB-692E0748F290}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3280,10 +3493,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="D24" s="7">
-        <v>272931</v>
+        <v>144851</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>153</v>
@@ -3295,10 +3508,10 @@
         <v>155</v>
       </c>
       <c r="H24" s="7">
-        <v>337</v>
+        <v>176</v>
       </c>
       <c r="I24" s="7">
-        <v>361038</v>
+        <v>180865</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>156</v>
@@ -3310,10 +3523,10 @@
         <v>158</v>
       </c>
       <c r="M24" s="7">
-        <v>584</v>
+        <v>309</v>
       </c>
       <c r="N24" s="7">
-        <v>633969</v>
+        <v>325716</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>159</v>
@@ -3331,10 +3544,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="D25" s="7">
-        <v>209049</v>
+        <v>117856</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>162</v>
@@ -3346,34 +3559,34 @@
         <v>164</v>
       </c>
       <c r="H25" s="7">
-        <v>252</v>
+        <v>128</v>
       </c>
       <c r="I25" s="7">
-        <v>270164</v>
+        <v>133136</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>237</v>
+      </c>
+      <c r="N25" s="7">
+        <v>250991</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="M25" s="7">
-        <v>441</v>
-      </c>
-      <c r="N25" s="7">
-        <v>479213</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,49 +3595,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D26" s="7">
-        <v>76490</v>
+        <v>47079</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>40</v>
+      </c>
+      <c r="I26" s="7">
+        <v>39996</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="7">
-        <v>103</v>
-      </c>
-      <c r="I26" s="7">
-        <v>109551</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>80</v>
+      </c>
+      <c r="N26" s="7">
+        <v>87075</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M26" s="7">
-        <v>170</v>
-      </c>
-      <c r="N26" s="7">
-        <v>186041</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,10 +3646,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>503</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>558469</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3448,10 +3661,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>692</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>740753</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3463,10 +3676,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1195</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1299222</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3480,55 +3693,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1673</v>
+        <v>114</v>
       </c>
       <c r="D28" s="7">
-        <v>1796962</v>
+        <v>128080</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>161</v>
+      </c>
+      <c r="I28" s="7">
+        <v>180173</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H28" s="7">
-        <v>1703</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1840410</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>275</v>
+      </c>
+      <c r="N28" s="7">
+        <v>308253</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="M28" s="7">
-        <v>3376</v>
-      </c>
-      <c r="N28" s="7">
-        <v>3637371</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,49 +3750,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1117</v>
+        <v>80</v>
       </c>
       <c r="D29" s="7">
-        <v>1189930</v>
+        <v>91193</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>124</v>
+      </c>
+      <c r="I29" s="7">
+        <v>137028</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H29" s="7">
-        <v>1130</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1217933</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>204</v>
+      </c>
+      <c r="N29" s="7">
+        <v>228221</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M29" s="7">
-        <v>2247</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2407863</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,49 +3801,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>411</v>
+        <v>27</v>
       </c>
       <c r="D30" s="7">
-        <v>431493</v>
+        <v>29410</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>63</v>
+      </c>
+      <c r="I30" s="7">
+        <v>69556</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H30" s="7">
-        <v>452</v>
-      </c>
-      <c r="I30" s="7">
-        <v>484758</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>90</v>
+      </c>
+      <c r="N30" s="7">
+        <v>98966</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="M30" s="7">
-        <v>863</v>
-      </c>
-      <c r="N30" s="7">
-        <v>916252</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,63 +3852,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>221</v>
+      </c>
+      <c r="D31" s="7">
+        <v>248683</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>348</v>
+      </c>
+      <c r="I31" s="7">
+        <v>386757</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>569</v>
+      </c>
+      <c r="N31" s="7">
+        <v>635440</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1673</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1796962</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1703</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1840410</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3376</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3637371</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1117</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1189930</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1130</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1217933</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2247</v>
+      </c>
+      <c r="N33" s="7">
+        <v>2407863</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>411</v>
+      </c>
+      <c r="D34" s="7">
+        <v>431493</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" s="7">
+        <v>452</v>
+      </c>
+      <c r="I34" s="7">
+        <v>484758</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M34" s="7">
+        <v>863</v>
+      </c>
+      <c r="N34" s="7">
+        <v>916252</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3201</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3418386</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3285</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3543101</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6486</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6961486</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>207</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3708,8 +4128,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C2C6CC-B673-4E02-A8C4-D80493C229EC}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08BEABC-4503-4A66-8A1C-F7A00D3E59D1}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3725,7 +4145,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3832,13 +4252,13 @@
         <v>283461</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>275</v>
@@ -3847,13 +4267,13 @@
         <v>267065</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>544</v>
@@ -3862,13 +4282,13 @@
         <v>550526</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +4303,13 @@
         <v>99562</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>88</v>
@@ -3898,13 +4318,13 @@
         <v>86708</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>179</v>
@@ -3913,13 +4333,13 @@
         <v>186270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +4354,13 @@
         <v>34163</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="H6" s="7">
         <v>40</v>
@@ -3949,13 +4369,13 @@
         <v>40986</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -3964,13 +4384,13 @@
         <v>75150</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4458,13 @@
         <v>364460</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>367</v>
@@ -4053,28 +4473,28 @@
         <v>356166</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>718</v>
       </c>
       <c r="N8" s="7">
-        <v>720626</v>
+        <v>720627</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4509,13 @@
         <v>161153</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7">
         <v>142</v>
@@ -4104,28 +4524,28 @@
         <v>138736</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="M9" s="7">
         <v>295</v>
       </c>
       <c r="N9" s="7">
-        <v>299888</v>
+        <v>299889</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,10 +4560,10 @@
         <v>64883</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>65</v>
@@ -4155,13 +4575,13 @@
         <v>67714</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>175</v>
       </c>
       <c r="M10" s="7">
         <v>132</v>
@@ -4170,13 +4590,13 @@
         <v>132597</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,7 +4638,7 @@
         <v>1145</v>
       </c>
       <c r="N11" s="7">
-        <v>1153112</v>
+        <v>1153113</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4244,13 +4664,13 @@
         <v>439564</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="H12" s="7">
         <v>455</v>
@@ -4259,13 +4679,13 @@
         <v>450614</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="M12" s="7">
         <v>879</v>
@@ -4274,13 +4694,13 @@
         <v>890178</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4715,13 @@
         <v>162144</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -4310,13 +4730,13 @@
         <v>141791</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -4325,13 +4745,13 @@
         <v>303935</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4766,13 @@
         <v>64380</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -4361,13 +4781,13 @@
         <v>65095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>126</v>
@@ -4376,13 +4796,13 @@
         <v>129475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4870,13 @@
         <v>422356</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>403</v>
@@ -4465,13 +4885,13 @@
         <v>434903</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>779</v>
@@ -4480,13 +4900,13 @@
         <v>857259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4921,13 @@
         <v>158384</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="H17" s="7">
         <v>130</v>
@@ -4516,13 +4936,13 @@
         <v>138147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>278</v>
@@ -4531,13 +4951,13 @@
         <v>296531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4972,13 @@
         <v>61948</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>178</v>
+        <v>329</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -4567,13 +4987,13 @@
         <v>73198</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="M18" s="7">
         <v>122</v>
@@ -4582,13 +5002,13 @@
         <v>135146</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +5076,13 @@
         <v>310552</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="H20" s="7">
         <v>269</v>
@@ -4671,13 +5091,13 @@
         <v>307946</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="M20" s="7">
         <v>546</v>
@@ -4686,13 +5106,13 @@
         <v>618497</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +5127,13 @@
         <v>108985</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="H21" s="7">
         <v>102</v>
@@ -4722,13 +5142,13 @@
         <v>113721</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="M21" s="7">
         <v>198</v>
@@ -4737,13 +5157,13 @@
         <v>222706</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +5178,13 @@
         <v>54213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -4773,13 +5193,13 @@
         <v>71972</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -4788,13 +5208,13 @@
         <v>126185</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,49 +5276,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>415</v>
+        <v>224</v>
       </c>
       <c r="D24" s="7">
-        <v>388787</v>
+        <v>227298</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="H24" s="7">
-        <v>413</v>
+        <v>215</v>
       </c>
       <c r="I24" s="7">
-        <v>491415</v>
+        <v>229278</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="M24" s="7">
-        <v>828</v>
+        <v>439</v>
       </c>
       <c r="N24" s="7">
-        <v>880202</v>
+        <v>456576</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,49 +5327,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="D25" s="7">
-        <v>143973</v>
+        <v>73608</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>52</v>
+        <v>374</v>
       </c>
       <c r="H25" s="7">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="I25" s="7">
-        <v>187553</v>
+        <v>90282</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="M25" s="7">
-        <v>307</v>
+        <v>153</v>
       </c>
       <c r="N25" s="7">
-        <v>331526</v>
+        <v>163890</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>356</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,49 +5378,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D26" s="7">
-        <v>55737</v>
+        <v>31504</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="H26" s="7">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I26" s="7">
-        <v>92515</v>
+        <v>54151</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="M26" s="7">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="N26" s="7">
-        <v>148252</v>
+        <v>85655</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>89</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,10 +5429,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>624</v>
+        <v>323</v>
       </c>
       <c r="D27" s="7">
-        <v>588496</v>
+        <v>332410</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -5024,10 +5444,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>649</v>
+        <v>350</v>
       </c>
       <c r="I27" s="7">
-        <v>771484</v>
+        <v>373712</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -5039,10 +5459,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1273</v>
+        <v>673</v>
       </c>
       <c r="N27" s="7">
-        <v>1359980</v>
+        <v>706122</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5056,55 +5476,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2112</v>
+        <v>191</v>
       </c>
       <c r="D28" s="7">
-        <v>2209179</v>
+        <v>161489</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>238</v>
+        <v>390</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="H28" s="7">
-        <v>2182</v>
+        <v>198</v>
       </c>
       <c r="I28" s="7">
-        <v>2308110</v>
+        <v>262137</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="M28" s="7">
-        <v>4294</v>
+        <v>389</v>
       </c>
       <c r="N28" s="7">
-        <v>4517288</v>
+        <v>423626</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,49 +5533,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>786</v>
+        <v>81</v>
       </c>
       <c r="D29" s="7">
-        <v>834200</v>
+        <v>70364</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="H29" s="7">
-        <v>762</v>
+        <v>73</v>
       </c>
       <c r="I29" s="7">
-        <v>806656</v>
+        <v>97271</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>249</v>
+        <v>403</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="M29" s="7">
-        <v>1548</v>
+        <v>154</v>
       </c>
       <c r="N29" s="7">
-        <v>1640856</v>
+        <v>167636</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>380</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,49 +5584,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>318</v>
+        <v>29</v>
       </c>
       <c r="D30" s="7">
-        <v>335325</v>
+        <v>24233</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="H30" s="7">
-        <v>377</v>
+        <v>28</v>
       </c>
       <c r="I30" s="7">
-        <v>411480</v>
+        <v>38364</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>63</v>
+        <v>327</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>89</v>
+        <v>411</v>
       </c>
       <c r="M30" s="7">
-        <v>695</v>
+        <v>57</v>
       </c>
       <c r="N30" s="7">
-        <v>746805</v>
+        <v>62596</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>387</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,63 +5635,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>301</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256086</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>299</v>
+      </c>
+      <c r="I31" s="7">
+        <v>397772</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>600</v>
+      </c>
+      <c r="N31" s="7">
+        <v>653858</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2112</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2209179</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2182</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2308110</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4294</v>
+      </c>
+      <c r="N32" s="7">
+        <v>4517288</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>786</v>
+      </c>
+      <c r="D33" s="7">
+        <v>834200</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H33" s="7">
+        <v>762</v>
+      </c>
+      <c r="I33" s="7">
+        <v>806656</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1548</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1640856</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>318</v>
+      </c>
+      <c r="D34" s="7">
+        <v>335325</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H34" s="7">
+        <v>377</v>
+      </c>
+      <c r="I34" s="7">
+        <v>411480</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M34" s="7">
+        <v>695</v>
+      </c>
+      <c r="N34" s="7">
+        <v>746805</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3216</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3378704</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3321</v>
       </c>
-      <c r="I31" s="7">
-        <v>3526246</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3526245</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6537</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6904949</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>207</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5284,8 +5911,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A5EA21-48BB-49D3-83E3-0FEF4CEB03FA}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393F604E-F7E3-4A82-BCF0-FF274C7C0D0C}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5301,7 +5928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5405,46 +6032,46 @@
         <v>130</v>
       </c>
       <c r="D4" s="7">
-        <v>290160</v>
+        <v>311350</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="H4" s="7">
         <v>138</v>
       </c>
       <c r="I4" s="7">
-        <v>228958</v>
+        <v>203933</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>268</v>
       </c>
       <c r="N4" s="7">
-        <v>519118</v>
+        <v>515283</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,46 +6083,46 @@
         <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>61230</v>
+        <v>60649</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>77563</v>
+        <v>67046</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="M5" s="7">
         <v>73</v>
       </c>
       <c r="N5" s="7">
-        <v>138793</v>
+        <v>127695</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,46 +6134,46 @@
         <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>26289</v>
+        <v>27988</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>409</v>
+        <v>223</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>48275</v>
+        <v>42057</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="M6" s="7">
         <v>37</v>
       </c>
       <c r="N6" s="7">
-        <v>74564</v>
+        <v>70046</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,7 +6185,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -5573,7 +6200,7 @@
         <v>206</v>
       </c>
       <c r="I7" s="7">
-        <v>354796</v>
+        <v>313036</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5588,7 +6215,7 @@
         <v>378</v>
       </c>
       <c r="N7" s="7">
-        <v>732475</v>
+        <v>713023</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5611,46 +6238,46 @@
         <v>222</v>
       </c>
       <c r="D8" s="7">
-        <v>315703</v>
+        <v>311993</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="H8" s="7">
         <v>355</v>
       </c>
       <c r="I8" s="7">
-        <v>384084</v>
+        <v>409240</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="M8" s="7">
         <v>577</v>
       </c>
       <c r="N8" s="7">
-        <v>699787</v>
+        <v>721233</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,46 +6289,46 @@
         <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>75622</v>
+        <v>74731</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>426</v>
+        <v>143</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="H9" s="7">
         <v>67</v>
       </c>
       <c r="I9" s="7">
-        <v>70765</v>
+        <v>62780</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>385</v>
+        <v>475</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="M9" s="7">
         <v>120</v>
       </c>
       <c r="N9" s="7">
-        <v>146388</v>
+        <v>137511</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,46 +6340,46 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>37071</v>
+        <v>36824</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>480</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>44365</v>
+        <v>40073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
       </c>
       <c r="N10" s="7">
-        <v>81436</v>
+        <v>76896</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,7 +6391,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5779,7 +6406,7 @@
         <v>461</v>
       </c>
       <c r="I11" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5794,7 +6421,7 @@
         <v>763</v>
       </c>
       <c r="N11" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5817,46 +6444,46 @@
         <v>409</v>
       </c>
       <c r="D12" s="7">
-        <v>411915</v>
+        <v>399126</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="H12" s="7">
         <v>625</v>
       </c>
       <c r="I12" s="7">
-        <v>456308</v>
+        <v>451030</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="M12" s="7">
         <v>1034</v>
       </c>
       <c r="N12" s="7">
-        <v>868223</v>
+        <v>850157</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,46 +6495,46 @@
         <v>82</v>
       </c>
       <c r="D13" s="7">
-        <v>89235</v>
+        <v>82854</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
       </c>
       <c r="I13" s="7">
-        <v>97029</v>
+        <v>88436</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="M13" s="7">
         <v>221</v>
       </c>
       <c r="N13" s="7">
-        <v>186265</v>
+        <v>171290</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>415</v>
+        <v>505</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,46 +6546,46 @@
         <v>52</v>
       </c>
       <c r="D14" s="7">
-        <v>54733</v>
+        <v>53010</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>460</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
       </c>
       <c r="I14" s="7">
-        <v>56332</v>
+        <v>51806</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>462</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="M14" s="7">
         <v>135</v>
       </c>
       <c r="N14" s="7">
-        <v>111065</v>
+        <v>104816</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>464</v>
+        <v>509</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>466</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,7 +6597,7 @@
         <v>543</v>
       </c>
       <c r="D15" s="7">
-        <v>555883</v>
+        <v>534990</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5985,7 +6612,7 @@
         <v>847</v>
       </c>
       <c r="I15" s="7">
-        <v>609669</v>
+        <v>591272</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -6000,7 +6627,7 @@
         <v>1390</v>
       </c>
       <c r="N15" s="7">
-        <v>1165552</v>
+        <v>1126263</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -6023,46 +6650,46 @@
         <v>468</v>
       </c>
       <c r="D16" s="7">
-        <v>523610</v>
+        <v>701116</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>467</v>
+        <v>512</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>468</v>
+        <v>513</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>469</v>
+        <v>514</v>
       </c>
       <c r="H16" s="7">
         <v>838</v>
       </c>
       <c r="I16" s="7">
-        <v>543369</v>
+        <v>526174</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>470</v>
+        <v>515</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>472</v>
+        <v>517</v>
       </c>
       <c r="M16" s="7">
         <v>1306</v>
       </c>
       <c r="N16" s="7">
-        <v>1066978</v>
+        <v>1227291</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>473</v>
+        <v>518</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>474</v>
+        <v>519</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>475</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,46 +6701,46 @@
         <v>119</v>
       </c>
       <c r="D17" s="7">
-        <v>121027</v>
+        <v>111874</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>476</v>
+        <v>521</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>477</v>
+        <v>522</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>478</v>
+        <v>523</v>
       </c>
       <c r="H17" s="7">
         <v>182</v>
       </c>
       <c r="I17" s="7">
-        <v>122323</v>
+        <v>111630</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>479</v>
+        <v>524</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>481</v>
+        <v>526</v>
       </c>
       <c r="M17" s="7">
         <v>301</v>
       </c>
       <c r="N17" s="7">
-        <v>243350</v>
+        <v>223505</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>482</v>
+        <v>527</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>528</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,46 +6752,46 @@
         <v>78</v>
       </c>
       <c r="D18" s="7">
-        <v>79354</v>
+        <v>74795</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>486</v>
+        <v>532</v>
       </c>
       <c r="H18" s="7">
         <v>120</v>
       </c>
       <c r="I18" s="7">
-        <v>81410</v>
+        <v>74916</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>363</v>
+        <v>533</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="M18" s="7">
         <v>198</v>
       </c>
       <c r="N18" s="7">
-        <v>160764</v>
+        <v>149711</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>489</v>
+        <v>536</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>490</v>
+        <v>537</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>491</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,7 +6803,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -6191,7 +6818,7 @@
         <v>1140</v>
       </c>
       <c r="I19" s="7">
-        <v>747102</v>
+        <v>712721</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6206,7 +6833,7 @@
         <v>1805</v>
       </c>
       <c r="N19" s="7">
-        <v>1471092</v>
+        <v>1600507</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6229,46 +6856,46 @@
         <v>499</v>
       </c>
       <c r="D20" s="7">
-        <v>452823</v>
+        <v>424641</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>493</v>
+        <v>540</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>541</v>
       </c>
       <c r="H20" s="7">
         <v>749</v>
       </c>
       <c r="I20" s="7">
-        <v>440477</v>
+        <v>405448</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>494</v>
+        <v>542</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="M20" s="7">
         <v>1248</v>
       </c>
       <c r="N20" s="7">
-        <v>893300</v>
+        <v>830089</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>499</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,46 +6907,46 @@
         <v>104</v>
       </c>
       <c r="D21" s="7">
-        <v>94725</v>
+        <v>87677</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>430</v>
+        <v>548</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="H21" s="7">
         <v>142</v>
       </c>
       <c r="I21" s="7">
-        <v>88859</v>
+        <v>80544</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>198</v>
+        <v>552</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>503</v>
+        <v>553</v>
       </c>
       <c r="M21" s="7">
         <v>246</v>
       </c>
       <c r="N21" s="7">
-        <v>183584</v>
+        <v>168220</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>410</v>
+        <v>555</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>505</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,46 +6958,46 @@
         <v>60</v>
       </c>
       <c r="D22" s="7">
-        <v>52609</v>
+        <v>48916</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>507</v>
+        <v>557</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>110</v>
       </c>
       <c r="I22" s="7">
-        <v>67065</v>
+        <v>61301</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>509</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>510</v>
+        <v>558</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>511</v>
+        <v>559</v>
       </c>
       <c r="M22" s="7">
         <v>170</v>
       </c>
       <c r="N22" s="7">
-        <v>119674</v>
+        <v>110217</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>560</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>332</v>
+        <v>561</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>512</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,7 +7009,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -6397,7 +7024,7 @@
         <v>1001</v>
       </c>
       <c r="I23" s="7">
-        <v>596401</v>
+        <v>547293</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6412,7 +7039,7 @@
         <v>1664</v>
       </c>
       <c r="N23" s="7">
-        <v>1196558</v>
+        <v>1108526</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6432,49 +7059,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>731</v>
+        <v>415</v>
       </c>
       <c r="D24" s="7">
-        <v>499273</v>
+        <v>270751</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>513</v>
+        <v>562</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>514</v>
+        <v>563</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>515</v>
+        <v>564</v>
       </c>
       <c r="H24" s="7">
-        <v>1278</v>
+        <v>615</v>
       </c>
       <c r="I24" s="7">
-        <v>787766</v>
+        <v>504542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>516</v>
+        <v>565</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>518</v>
+        <v>566</v>
       </c>
       <c r="M24" s="7">
-        <v>2009</v>
+        <v>1030</v>
       </c>
       <c r="N24" s="7">
-        <v>1287039</v>
+        <v>775293</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>519</v>
+        <v>567</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>521</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,49 +7110,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="D25" s="7">
-        <v>141463</v>
+        <v>66037</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>522</v>
+        <v>479</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>523</v>
+        <v>570</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="H25" s="7">
-        <v>285</v>
+        <v>145</v>
       </c>
       <c r="I25" s="7">
-        <v>157882</v>
+        <v>71219</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>524</v>
+        <v>571</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>572</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>525</v>
+        <v>573</v>
       </c>
       <c r="M25" s="7">
-        <v>494</v>
+        <v>248</v>
       </c>
       <c r="N25" s="7">
-        <v>299345</v>
+        <v>137256</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>575</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,49 +7161,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D26" s="7">
-        <v>56448</v>
+        <v>31378</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>485</v>
+        <v>576</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="H26" s="7">
+        <v>67</v>
+      </c>
+      <c r="I26" s="7">
+        <v>32607</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="H26" s="7">
-        <v>144</v>
-      </c>
-      <c r="I26" s="7">
-        <v>80356</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>532</v>
-      </c>
       <c r="M26" s="7">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="N26" s="7">
-        <v>136804</v>
+        <v>63984</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>533</v>
+        <v>577</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>534</v>
+        <v>581</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>535</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,10 +7212,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697184</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -6600,10 +7227,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I27" s="7">
-        <v>1026003</v>
+        <v>608368</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -6615,10 +7242,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2734</v>
+        <v>1397</v>
       </c>
       <c r="N27" s="7">
-        <v>1723187</v>
+        <v>976533</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -6632,55 +7259,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2459</v>
+        <v>316</v>
       </c>
       <c r="D28" s="7">
-        <v>2493482</v>
+        <v>196438</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>536</v>
+        <v>583</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>537</v>
+        <v>584</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="H28" s="7">
-        <v>3983</v>
+        <v>663</v>
       </c>
       <c r="I28" s="7">
-        <v>2840962</v>
+        <v>316163</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>539</v>
+        <v>586</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>540</v>
+        <v>587</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>541</v>
+        <v>588</v>
       </c>
       <c r="M28" s="7">
-        <v>6442</v>
+        <v>979</v>
       </c>
       <c r="N28" s="7">
-        <v>5334444</v>
+        <v>512601</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>542</v>
+        <v>589</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>543</v>
+        <v>590</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6689,49 +7316,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
+        <v>106</v>
+      </c>
+      <c r="D29" s="7">
+        <v>64355</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H29" s="7">
+        <v>140</v>
+      </c>
+      <c r="I29" s="7">
+        <v>69866</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="M29" s="7">
+        <v>246</v>
+      </c>
+      <c r="N29" s="7">
+        <v>134221</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="D29" s="7">
-        <v>583303</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="H29" s="7">
-        <v>858</v>
-      </c>
-      <c r="I29" s="7">
-        <v>614422</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1455</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1197725</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>551</v>
-      </c>
       <c r="P29" s="7" t="s">
-        <v>552</v>
+        <v>598</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>553</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,49 +7367,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>316</v>
+        <v>35</v>
       </c>
       <c r="D30" s="7">
-        <v>306503</v>
+        <v>21428</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>556</v>
+        <v>602</v>
       </c>
       <c r="H30" s="7">
-        <v>521</v>
+        <v>77</v>
       </c>
       <c r="I30" s="7">
-        <v>377803</v>
+        <v>39271</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>557</v>
+        <v>603</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>558</v>
+        <v>604</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>484</v>
+        <v>605</v>
       </c>
       <c r="M30" s="7">
-        <v>837</v>
+        <v>112</v>
       </c>
       <c r="N30" s="7">
-        <v>684306</v>
+        <v>60699</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>438</v>
+        <v>606</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>560</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,63 +7418,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>457</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282221</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425300</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707521</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2459</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2615415</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3983</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2816531</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6442</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5431947</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>597</v>
+      </c>
+      <c r="D33" s="7">
+        <v>548176</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="H33" s="7">
+        <v>858</v>
+      </c>
+      <c r="I33" s="7">
+        <v>551521</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1455</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1099697</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>316</v>
+      </c>
+      <c r="D34" s="7">
+        <v>294339</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="H34" s="7">
+        <v>521</v>
+      </c>
+      <c r="I34" s="7">
+        <v>342031</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="M34" s="7">
+        <v>837</v>
+      </c>
+      <c r="N34" s="7">
+        <v>636370</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3372</v>
       </c>
-      <c r="D31" s="7">
-        <v>3383288</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3457930</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5362</v>
       </c>
-      <c r="I31" s="7">
-        <v>3833186</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3710083</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8734</v>
       </c>
-      <c r="N31" s="7">
-        <v>7216475</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>207</v>
+      <c r="N35" s="7">
+        <v>7168014</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
